--- a/communication_python/Verify_comm10100.xlsx
+++ b/communication_python/Verify_comm10100.xlsx
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.512197</v>
+        <v>0.294988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.748645</v>
+        <v>3.141354</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
